--- a/static/files/communes.xlsx
+++ b/static/files/communes.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvain/Projects/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17737C92-211D-0E40-B7CB-F791BE3FEF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDC12FF-5E70-464D-BCE9-AE2A8660AA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Financements" sheetId="1" r:id="rId1"/>
+    <sheet name="Communes" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -842,7 +842,7 @@
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/files/communes.xlsx
+++ b/static/files/communes.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvain/Projects/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDC12FF-5E70-464D-BCE9-AE2A8660AA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE78A0-6B69-8047-A84A-A9D8D4AD214C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Communes" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,63 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Ici quelques explications</t>
   </si>
   <si>
-    <t>1. Telechager le modèle (ce fichier)</t>
-  </si>
-  <si>
     <t>3. Enregistrer vos modifications</t>
   </si>
   <si>
     <t>4. Téléverser le fichier modifié dans l'application</t>
   </si>
   <si>
-    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
-  </si>
-  <si>
-    <t>EPCI</t>
-  </si>
-  <si>
-    <t>Prêteurs (Ne pas modifier)</t>
-  </si>
-  <si>
-    <t>CDC pour le foncier</t>
-  </si>
-  <si>
-    <t>CDC pour le logement</t>
-  </si>
-  <si>
     <t>2. Modifier à votre guise le fichier</t>
-  </si>
-  <si>
-    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
-  </si>
-  <si>
-    <t>ANRU</t>
-  </si>
-  <si>
-    <t>ligne data</t>
-  </si>
-  <si>
-    <t>indiquer l’ensemble des prêts et subventions.</t>
-  </si>
-  <si>
-    <t>Commune et action logement</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>Etat</t>
-  </si>
-  <si>
-    <t>Autre/Subventions</t>
   </si>
   <si>
     <t xml:space="preserve">Commune
@@ -107,6 +61,18 @@
   </si>
   <si>
     <t>Ahetze</t>
+  </si>
+  <si>
+    <t>1. Telecharger le modèle (ce fichier)</t>
+  </si>
+  <si>
+    <t>5. Vérifier le contenu téléversé dans l'application</t>
+  </si>
+  <si>
+    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des communes, cela casserait l'import des données</t>
+  </si>
+  <si>
+    <t>indiquer l'ensemble des communes à inclure dans la réassignation avec les codes postaux associés</t>
   </si>
 </sst>
 </file>
@@ -173,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -182,13 +148,57 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -197,95 +207,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -294,31 +216,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -326,76 +243,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7E685423-C25E-4FB8-8031-A60CD9C41F40}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -406,16 +254,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="preteurs" displayName="preteurs" ref="A1:A10" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:A10" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{68B921AF-0801-1140-A800-5EFE7005DB88}" name="Prêteurs (Ne pas modifier)" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -728,104 +566,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>19</v>
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>64008</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>64009</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -841,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,120 +696,41 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>13</v>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/75Y8XaPJ/860OiFB0DslEFn4QBfJZrHKQrBxOKNaWGlgIQ9yIZO6BXxEUsXSddEo4Qi5gHJXtnbs/IeVCxXFQ==" saltValue="CRd/jr4Pbm73hYcej6gxgg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dTZKHgoyGStyCRkzFWML3Qp/DmSM/2I7sEl5x4ygNSe4y+m5Aouv+/p+c1RZ2auvhSM82wpDCskWHKLlSuB7Jw==" saltValue="qtynwVbEz/IIPg0A1K/oLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="twTmi6Rd4fQavULxqJZ3e7rcu7uzEmZnyeESM2YvXe5kicWDvqpc17t2PBPEc9sUGpwS9d1XWWn2H7NEO92iUQ==" saltValue="rqEtg/lYY4Jz7LUBKK/nJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/static/files/communes.xlsx
+++ b/static/files/communes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvain/Projects/apilos/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE78A0-6B69-8047-A84A-A9D8D4AD214C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EFAFA9-34B8-3C4D-864C-2565C0FE6CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="38380" yWindow="2000" windowWidth="28800" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Communes" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
